--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_4421.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_4421.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4421</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mark A Wood</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>08/05/2015</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3800</t>
+          <t>3800</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3806</t>
+          <t>3806</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -592,7 +656,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>17/06/2015</t>
@@ -600,7 +663,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3807</t>
+          <t>3807</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -640,7 +703,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>20/06/2015</t>
@@ -648,7 +710,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3809</t>
+          <t>3809</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -700,7 +762,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3830</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -740,7 +802,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>11/09/2015</t>
@@ -748,7 +809,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3833</t>
+          <t>3833</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -800,7 +861,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3834</t>
+          <t>3834</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -840,7 +901,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>24/08/2016</t>
@@ -848,7 +908,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3925</t>
+          <t>3925</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -888,7 +948,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>27/08/2016</t>
@@ -896,7 +955,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3926</t>
+          <t>3926</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -936,7 +995,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>30/08/2016</t>
@@ -944,7 +1002,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3928</t>
+          <t>3928</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -996,7 +1054,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3932</t>
+          <t>3932</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1036,7 +1094,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>05/05/2017</t>
@@ -1044,7 +1101,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4020</t>
+          <t>4020</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1084,7 +1141,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>07/05/2017</t>
@@ -1092,7 +1148,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4021</t>
+          <t>4021</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1132,7 +1188,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>24/05/2017</t>
@@ -1140,7 +1195,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4028</t>
+          <t>4028</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1180,7 +1235,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>27/05/2017</t>
@@ -1188,7 +1242,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4029</t>
+          <t>4029</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1228,7 +1282,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>01/06/2017</t>
@@ -1236,7 +1289,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4031</t>
+          <t>4031</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1288,7 +1341,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4036</t>
+          <t>4036</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1328,7 +1381,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>10/06/2017</t>
@@ -1336,7 +1388,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4041</t>
+          <t>4041</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1388,7 +1440,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4045</t>
+          <t>4045</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1428,7 +1480,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>14/01/2018</t>
@@ -1436,7 +1487,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4108</t>
+          <t>4108</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1476,7 +1527,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>18/01/2018</t>
@@ -1484,7 +1534,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4115</t>
+          <t>4115</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1524,7 +1574,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>21/01/2018</t>
@@ -1532,7 +1581,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4117</t>
+          <t>4117</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1584,7 +1633,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4123</t>
+          <t>4123</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1636,7 +1685,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4139</t>
+          <t>4139</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1688,7 +1737,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4146</t>
+          <t>4146</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1728,7 +1777,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>10/03/2018</t>
@@ -1736,7 +1784,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4149</t>
+          <t>4149</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1788,7 +1836,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4165</t>
+          <t>4165</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1828,7 +1876,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>13/06/2018</t>
@@ -1836,7 +1883,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4166</t>
+          <t>4166</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1876,7 +1923,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>16/06/2018</t>
@@ -1884,7 +1930,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4167</t>
+          <t>4167</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1924,7 +1970,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>19/06/2018</t>
@@ -1932,7 +1977,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4168</t>
+          <t>4168</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1972,7 +2017,6 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>21/06/2018</t>
@@ -1980,7 +2024,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4169</t>
+          <t>4169</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2032,7 +2076,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4171</t>
+          <t>4171</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2072,7 +2116,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>14/07/2018</t>
@@ -2080,7 +2123,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4173</t>
+          <t>4173</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2120,7 +2163,6 @@
           <t>34</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>17/07/2018</t>
@@ -2128,7 +2170,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4175</t>
+          <t>4175</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2168,7 +2210,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>23/10/2018</t>
@@ -2176,7 +2217,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4215</t>
+          <t>4215</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2216,7 +2257,6 @@
           <t>36</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>20/02/2019</t>
@@ -2224,7 +2264,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4253</t>
+          <t>4253</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2276,7 +2316,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4254</t>
+          <t>4254</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2316,7 +2356,6 @@
           <t>38</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>25/02/2019</t>
@@ -2324,7 +2363,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4255</t>
+          <t>4255</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2364,7 +2403,6 @@
           <t>39</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>27/02/2019</t>
@@ -2372,7 +2410,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4256</t>
+          <t>4256</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2424,7 +2462,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4260</t>
+          <t>4260</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2464,7 +2502,6 @@
           <t>41</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>17/05/2019</t>
@@ -2472,7 +2509,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4297</t>
+          <t>4297</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2524,7 +2561,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4308</t>
+          <t>4308</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2564,7 +2601,6 @@
           <t>43</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>08/06/2019</t>
@@ -2572,7 +2608,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4314</t>
+          <t>4314</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2612,7 +2648,6 @@
           <t>44</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>14/06/2019</t>
@@ -2620,7 +2655,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4321</t>
+          <t>4321</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2660,7 +2695,6 @@
           <t>45</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>18/06/2019</t>
@@ -2668,7 +2702,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4326</t>
+          <t>4326</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2720,7 +2754,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4331</t>
+          <t>4331</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2772,7 +2806,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4336</t>
+          <t>4336</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2812,7 +2846,6 @@
           <t>48</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
           <t>30/06/2019</t>
@@ -2820,7 +2853,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4342</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2860,7 +2893,6 @@
           <t>49</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>03/07/2019</t>
@@ -2868,7 +2900,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4346</t>
+          <t>4346</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2908,7 +2940,6 @@
           <t>50</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>11/07/2019</t>
@@ -2916,7 +2947,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4354</t>
+          <t>4354</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2968,7 +2999,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4355</t>
+          <t>4355</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3008,7 +3039,6 @@
           <t>52</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>11/09/2020</t>
@@ -3016,7 +3046,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4429</t>
+          <t>4429</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3056,7 +3086,6 @@
           <t>53</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>16/09/2020</t>
@@ -3064,7 +3093,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4431</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3116,7 +3145,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4454</t>
+          <t>4454</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3168,7 +3197,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4457</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3208,7 +3237,6 @@
           <t>56</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
           <t>29/06/2021</t>
@@ -3216,7 +3244,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4469</t>
+          <t>4469</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3256,7 +3284,6 @@
           <t>57</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>01/07/2021</t>
@@ -3264,7 +3291,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4470</t>
+          <t>4470</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3304,7 +3331,6 @@
           <t>58</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>01/03/2023</t>
@@ -3312,7 +3338,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4711</t>
+          <t>4711</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3352,7 +3378,6 @@
           <t>59</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>03/03/2023</t>
@@ -3360,7 +3385,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4713</t>
+          <t>4713</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3399,7 +3424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3421,7 +3446,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -3458,7 +3483,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3800</t>
+          <t>3800</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3495,7 +3520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3806</t>
+          <t>3806</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3532,7 +3557,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3807</t>
+          <t>3807</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3569,7 +3594,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3809</t>
+          <t>3809</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3606,7 +3631,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3830</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3643,7 +3668,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3833</t>
+          <t>3833</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3680,7 +3705,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3834</t>
+          <t>3834</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3717,7 +3742,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3925</t>
+          <t>3925</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3754,7 +3779,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3926</t>
+          <t>3926</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3791,7 +3816,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3928</t>
+          <t>3928</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3828,7 +3853,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3932</t>
+          <t>3932</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -3865,7 +3890,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4020</t>
+          <t>4020</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3902,7 +3927,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4021</t>
+          <t>4021</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3939,7 +3964,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4028</t>
+          <t>4028</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3976,7 +4001,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4029</t>
+          <t>4029</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -4013,7 +4038,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4031</t>
+          <t>4031</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -4050,7 +4075,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4036</t>
+          <t>4036</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4087,7 +4112,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4041</t>
+          <t>4041</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4124,7 +4149,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4045</t>
+          <t>4045</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4161,7 +4186,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4108</t>
+          <t>4108</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4198,7 +4223,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4115</t>
+          <t>4115</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4235,7 +4260,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4117</t>
+          <t>4117</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4272,7 +4297,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4123</t>
+          <t>4123</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -4309,7 +4334,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4139</t>
+          <t>4139</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4346,7 +4371,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4146</t>
+          <t>4146</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -4383,7 +4408,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4149</t>
+          <t>4149</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -4420,7 +4445,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4165</t>
+          <t>4165</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4457,7 +4482,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4166</t>
+          <t>4166</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -4494,7 +4519,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4167</t>
+          <t>4167</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4531,7 +4556,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4168</t>
+          <t>4168</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4568,7 +4593,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4169</t>
+          <t>4169</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4605,7 +4630,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4171</t>
+          <t>4171</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4642,7 +4667,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4173</t>
+          <t>4173</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4679,7 +4704,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4175</t>
+          <t>4175</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4716,7 +4741,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4215</t>
+          <t>4215</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4753,7 +4778,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4253</t>
+          <t>4253</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4790,7 +4815,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4254</t>
+          <t>4254</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4827,7 +4852,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4256</t>
+          <t>4256</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4864,7 +4889,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4260</t>
+          <t>4260</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4901,7 +4926,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4297</t>
+          <t>4297</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -4938,7 +4963,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4308</t>
+          <t>4308</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4975,7 +5000,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4314</t>
+          <t>4314</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5012,7 +5037,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4321</t>
+          <t>4321</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5049,7 +5074,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4326</t>
+          <t>4326</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5086,7 +5111,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4331</t>
+          <t>4331</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5123,7 +5148,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4336</t>
+          <t>4336</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -5160,7 +5185,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4342</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -5197,7 +5222,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4346</t>
+          <t>4346</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -5234,7 +5259,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4354</t>
+          <t>4354</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -5271,7 +5296,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4355</t>
+          <t>4355</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -5308,7 +5333,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4429</t>
+          <t>4429</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -5345,7 +5370,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4431</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -5382,7 +5407,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4454</t>
+          <t>4454</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -5419,7 +5444,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4457</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -5456,7 +5481,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4469</t>
+          <t>4469</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -5493,7 +5518,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4470</t>
+          <t>4470</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -5530,7 +5555,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4711</t>
+          <t>4711</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -5567,7 +5592,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4713</t>
+          <t>4713</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -5595,6 +5620,375 @@
           <t>0/14</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4260</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4297</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4308</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4314</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4321</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4326</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4331</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4336</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4342</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4.35%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4346</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4354</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4355</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4429</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4431</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4454</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4457</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4469</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4470</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4711</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4713</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_4421.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_4421.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5691,7 +5692,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5704,10 +5704,6 @@
           <t>4297</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5723,9 +5719,6 @@
       <c r="B4" t="n">
         <v>11</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5738,10 +5731,6 @@
           <t>4314</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5757,9 +5746,6 @@
       <c r="B6" t="n">
         <v>11</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5772,15 +5758,283 @@
           <t>4326</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4331</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4336</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4342</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4.35%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4346</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4354</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4355</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4429</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4431</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4454</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4457</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4469</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4470</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4711</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4713</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4260</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4297</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4308</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4314</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4321</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4326</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5788,13 +6042,14 @@
           <t>4331</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -5804,15 +6059,14 @@
           <t>4336</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>11</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -5822,29 +6076,12 @@
           <t>4342</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.35%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5852,17 +6089,8 @@
           <t>4346</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5870,15 +6098,14 @@
           <t>4354</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -5890,9 +6117,6 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5900,11 +6124,16 @@
           <t>4429</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5912,11 +6141,12 @@
           <t>4431</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5924,11 +6154,16 @@
           <t>4454</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5936,11 +6171,16 @@
           <t>4457</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5948,11 +6188,12 @@
           <t>4469</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5960,11 +6201,12 @@
           <t>4470</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5972,11 +6214,16 @@
           <t>4711</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5984,11 +6231,12 @@
           <t>4713</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_4421.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_4421.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -570,7 +569,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -2369,7 +2368,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -5692,6 +5691,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5704,6 +5704,10 @@
           <t>4297</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5719,6 +5723,9 @@
       <c r="B4" t="n">
         <v>11</v>
       </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5731,6 +5738,10 @@
           <t>4314</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5746,6 +5757,9 @@
       <c r="B6" t="n">
         <v>11</v>
       </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5758,6 +5772,10 @@
           <t>4326</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5770,6 +5788,10 @@
           <t>4331</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5785,6 +5807,9 @@
       <c r="B9" t="n">
         <v>11</v>
       </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5830,6 +5855,9 @@
       <c r="B11" t="n">
         <v>10</v>
       </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5845,6 +5873,9 @@
       <c r="B12" t="n">
         <v>11</v>
       </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5857,6 +5888,11 @@
           <t>4355</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5864,6 +5900,11 @@
           <t>4429</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5871,6 +5912,11 @@
           <t>4431</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5878,6 +5924,11 @@
           <t>4454</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5885,6 +5936,11 @@
           <t>4457</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5892,6 +5948,11 @@
           <t>4469</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5899,6 +5960,11 @@
           <t>4470</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5906,6 +5972,11 @@
           <t>4711</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5913,330 +5984,11 @@
           <t>4713</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4260</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4297</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4308</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4314</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4321</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4326</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4331</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4336</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4342</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4346</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4354</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4355</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4429</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4431</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4454</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4457</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4469</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4470</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4711</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4713</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_4421.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_4421.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -557,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>08/05/2015</t>
@@ -656,6 +656,7 @@
           <t>3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>17/06/2015</t>
@@ -703,6 +704,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>20/06/2015</t>
@@ -802,6 +804,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>11/09/2015</t>
@@ -901,6 +904,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>24/08/2016</t>
@@ -948,6 +952,7 @@
           <t>9</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>27/08/2016</t>
@@ -995,6 +1000,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>30/08/2016</t>
@@ -1094,6 +1100,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>05/05/2017</t>
@@ -1141,6 +1148,7 @@
           <t>13</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>07/05/2017</t>
@@ -1188,6 +1196,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>24/05/2017</t>
@@ -1235,6 +1244,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>27/05/2017</t>
@@ -1282,6 +1292,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>01/06/2017</t>
@@ -1381,6 +1392,7 @@
           <t>18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>10/06/2017</t>
@@ -1480,6 +1492,7 @@
           <t>20</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>14/01/2018</t>
@@ -1527,6 +1540,7 @@
           <t>21</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>18/01/2018</t>
@@ -1574,6 +1588,7 @@
           <t>22</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>21/01/2018</t>
@@ -1777,6 +1792,7 @@
           <t>26</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>10/03/2018</t>
@@ -1876,6 +1892,7 @@
           <t>28</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>13/06/2018</t>
@@ -1923,6 +1940,7 @@
           <t>29</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>16/06/2018</t>
@@ -1970,6 +1988,7 @@
           <t>30</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>19/06/2018</t>
@@ -2017,6 +2036,7 @@
           <t>31</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>21/06/2018</t>
@@ -2116,6 +2136,7 @@
           <t>33</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>14/07/2018</t>
@@ -2163,6 +2184,7 @@
           <t>34</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>17/07/2018</t>
@@ -2210,6 +2232,7 @@
           <t>35</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>23/10/2018</t>
@@ -2257,6 +2280,7 @@
           <t>36</t>
         </is>
       </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>20/02/2019</t>
@@ -2356,6 +2380,7 @@
           <t>38</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>25/02/2019</t>
@@ -2403,6 +2428,7 @@
           <t>39</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>27/02/2019</t>
@@ -2502,6 +2528,7 @@
           <t>41</t>
         </is>
       </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>17/05/2019</t>
@@ -2601,6 +2628,7 @@
           <t>43</t>
         </is>
       </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>08/06/2019</t>
@@ -2648,6 +2676,7 @@
           <t>44</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>14/06/2019</t>
@@ -2695,6 +2724,7 @@
           <t>45</t>
         </is>
       </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>18/06/2019</t>
@@ -2846,6 +2876,7 @@
           <t>48</t>
         </is>
       </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
           <t>30/06/2019</t>
@@ -2893,6 +2924,7 @@
           <t>49</t>
         </is>
       </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>03/07/2019</t>
@@ -2940,6 +2972,7 @@
           <t>50</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>11/07/2019</t>
@@ -3039,6 +3072,7 @@
           <t>52</t>
         </is>
       </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>11/09/2020</t>
@@ -3086,6 +3120,7 @@
           <t>53</t>
         </is>
       </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>16/09/2020</t>
@@ -3237,6 +3272,7 @@
           <t>56</t>
         </is>
       </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
           <t>29/06/2021</t>
@@ -3284,6 +3320,7 @@
           <t>57</t>
         </is>
       </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>01/07/2021</t>
@@ -3331,6 +3368,7 @@
           <t>58</t>
         </is>
       </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>01/03/2023</t>
@@ -3378,6 +3416,7 @@
           <t>59</t>
         </is>
       </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>03/03/2023</t>
@@ -5624,373 +5663,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4260</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>11</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4297</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4308</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>11</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4314</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4321</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4326</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4331</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4336</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>11</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4342</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.35%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4346</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4354</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4355</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4429</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4431</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4454</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4457</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4469</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4470</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4711</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4713</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>